--- a/CEPP64‐08 Gantt Chart.xlsx
+++ b/CEPP64‐08 Gantt Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A17C4D-E319-4B07-8954-148E6DF7F569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61C9E40-7547-49A6-9B07-A0E3FD7108ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-1155" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -1318,11 +1318,11 @@
   </sheetPr>
   <dimension ref="A1:BO59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1916,10 +1916,14 @@
       <c r="D17" s="6">
         <v>2</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="6">
+        <v>10</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
       <c r="G17" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2539,7 +2543,7 @@
       </c>
       <c r="G58" s="29">
         <f>AVERAGE(G6:G57)</f>
-        <v>0.25750000000000001</v>
+        <v>0.28250000000000003</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2822,6 +2826,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074C886D97DC2CA43A3C320BBEBDF10BC" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d2152290d9fcc0329f5ae5ab4ff8c314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44578a0e-d2a4-4569-89a6-913d1072a7e5" xmlns:ns4="a18590ec-63de-4bfb-82c4-ae33370569f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2a8b9a552455b1f3bf67fd0ee4a1fd6" ns3:_="" ns4:_="">
     <xsd:import namespace="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
@@ -3032,36 +3051,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB2DD865-0F33-43A8-B553-74F8F988C566}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E717F02-B222-4674-8658-8EF209B467A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
-    <ds:schemaRef ds:uri="a18590ec-63de-4bfb-82c4-ae33370569f5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3084,9 +3077,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E717F02-B222-4674-8658-8EF209B467A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB2DD865-0F33-43A8-B553-74F8F988C566}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
+    <ds:schemaRef ds:uri="a18590ec-63de-4bfb-82c4-ae33370569f5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CEPP64‐08 Gantt Chart.xlsx
+++ b/CEPP64‐08 Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61C9E40-7547-49A6-9B07-A0E3FD7108ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B34CE4-B1EF-4AE1-A2EB-A08E1D450487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1318,11 +1318,11 @@
   </sheetPr>
   <dimension ref="A1:BO59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1936,10 +1936,14 @@
       <c r="D18" s="6">
         <v>2</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="6">
+        <v>10</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
       <c r="G18" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2543,7 +2547,7 @@
       </c>
       <c r="G58" s="29">
         <f>AVERAGE(G6:G57)</f>
-        <v>0.28250000000000003</v>
+        <v>0.3075</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2826,21 +2830,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074C886D97DC2CA43A3C320BBEBDF10BC" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d2152290d9fcc0329f5ae5ab4ff8c314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44578a0e-d2a4-4569-89a6-913d1072a7e5" xmlns:ns4="a18590ec-63de-4bfb-82c4-ae33370569f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2a8b9a552455b1f3bf67fd0ee4a1fd6" ns3:_="" ns4:_="">
     <xsd:import namespace="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
@@ -3051,32 +3040,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E717F02-B222-4674-8658-8EF209B467A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF287837-3503-445D-B664-B7D777C7A24F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a18590ec-63de-4bfb-82c4-ae33370569f5"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB2DD865-0F33-43A8-B553-74F8F988C566}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3093,4 +3072,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E717F02-B222-4674-8658-8EF209B467A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF287837-3503-445D-B664-B7D777C7A24F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a18590ec-63de-4bfb-82c4-ae33370569f5"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CEPP64‐08 Gantt Chart.xlsx
+++ b/CEPP64‐08 Gantt Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B34CE4-B1EF-4AE1-A2EB-A08E1D450487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2181E4-384A-47B8-9E16-9142EB5E8FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -224,33 +224,12 @@
     <t>4.3.4.1 โปรไฟล์นักศึกษา</t>
   </si>
   <si>
-    <t>4.3.4.2 หน้าสำหรับการคาดการณ์เกรดของนักศึกษา</t>
-  </si>
-  <si>
-    <t>4.3.4.3 หน้าแนะนำรายวิชาสำหรับลงทะเบียน</t>
-  </si>
-  <si>
-    <t>4.3.4.4 หน้าพยากรณ์อนาคตนักศึกษา</t>
-  </si>
-  <si>
     <t>4.3.5 หน้าสำหรับอาจารย์</t>
   </si>
   <si>
-    <t>4.3.5.1 หน้ารายชื่อนักศึกษาที่ลงทะเบียนเรียน</t>
-  </si>
-  <si>
-    <t>4.3.5.2 หน้าประเมิณนักศึกษา</t>
-  </si>
-  <si>
     <t>4.3.6 หน้าสำหรับกรรมการหลักสูตร</t>
   </si>
   <si>
-    <t>4.3.6.1 หน้าคาดการณ์นักศึกษาว่าสามารถเรียนจบได้ไหม</t>
-  </si>
-  <si>
-    <t>4.3.6.2 หน้าคาดการณ์ผลลัพธ์ที่ได้ของบัณฑิตจากหลักสูตร</t>
-  </si>
-  <si>
     <t>4.4 Back-End</t>
   </si>
   <si>
@@ -330,6 +309,27 @@
   </si>
   <si>
     <t>5.4 ติดตั้ง Library TensorFlow</t>
+  </si>
+  <si>
+    <t>4.3.4.2 ส่วนสำหรับการคาดการณ์เกรดของนักศึกษา</t>
+  </si>
+  <si>
+    <t>4.3.4.3 ส่วนแนะนำรายวิชาสำหรับลงทะเบียน</t>
+  </si>
+  <si>
+    <t>4.3.4.4 ส่วนพยากรณ์อนาคตนักศึกษา</t>
+  </si>
+  <si>
+    <t>4.3.5.1 ส่วนรายชื่อนักศึกษาที่ลงทะเบียนเรียน</t>
+  </si>
+  <si>
+    <t>4.3.5.2 ส่วนประเมิณนักศึกษา</t>
+  </si>
+  <si>
+    <t>4.3.6.1 ส่วนคาดการณ์นักศึกษาว่าสามารถเรียนจบได้ไหม</t>
+  </si>
+  <si>
+    <t>4.3.6.2 ส่วนคาดการณ์ผลลัพธ์ที่ได้ของบัณฑิตจากหลักสูตร</t>
   </si>
 </sst>
 </file>
@@ -1319,27 +1319,20 @@
   <dimension ref="A1:BO59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="H29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="AH22" sqref="AH22"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="72.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="70.125" style="2" customWidth="1"/>
     <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="4.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.875" style="1" customWidth="1"/>
-    <col min="14" max="15" width="5.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.375" style="1" customWidth="1"/>
-    <col min="17" max="27" width="2.75" style="1"/>
+    <col min="8" max="26" width="4.625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
@@ -1822,7 +1815,7 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="25" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C12" s="6">
         <v>9</v>
@@ -1842,7 +1835,7 @@
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="25" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C13" s="6">
         <v>10</v>
@@ -1862,7 +1855,7 @@
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C14" s="6">
         <v>8</v>
@@ -2048,10 +2041,14 @@
       <c r="D25" s="6">
         <v>1</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="E25" s="6">
+        <v>9</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
       <c r="G25" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2064,10 +2061,14 @@
       <c r="D26" s="6">
         <v>1</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="E26" s="6">
+        <v>9</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
       <c r="G26" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2090,15 +2091,19 @@
       <c r="D28" s="6">
         <v>1</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="E28" s="6">
+        <v>10</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
       <c r="G28" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="25" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C29" s="6">
         <v>11</v>
@@ -2106,15 +2111,19 @@
       <c r="D29" s="6">
         <v>1</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="6">
+        <v>10</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
       <c r="G29" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="25" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C30" s="6">
         <v>11</v>
@@ -2122,15 +2131,19 @@
       <c r="D30" s="6">
         <v>1</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="6">
+        <v>10</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
       <c r="G30" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="25" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C31" s="6">
         <v>12</v>
@@ -2138,15 +2151,19 @@
       <c r="D31" s="6">
         <v>1</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="E31" s="6">
+        <v>10</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
       <c r="G31" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -2156,7 +2173,7 @@
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="25" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C33" s="6">
         <v>12</v>
@@ -2164,15 +2181,19 @@
       <c r="D33" s="6">
         <v>1</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="E33" s="6">
+        <v>10</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
       <c r="G33" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="25" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C34" s="6">
         <v>12</v>
@@ -2180,15 +2201,19 @@
       <c r="D34" s="6">
         <v>1</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="E34" s="6">
+        <v>10</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1</v>
+      </c>
       <c r="G34" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -2198,7 +2223,7 @@
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="25" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C36" s="6">
         <v>12</v>
@@ -2214,7 +2239,7 @@
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="25" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C37" s="6">
         <v>12</v>
@@ -2230,7 +2255,7 @@
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -2240,7 +2265,7 @@
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="25" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C39" s="6">
         <v>13</v>
@@ -2256,7 +2281,7 @@
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="25" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -2266,7 +2291,7 @@
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="25" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C41" s="6">
         <v>13</v>
@@ -2282,7 +2307,7 @@
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="25" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -2292,7 +2317,7 @@
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="25" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C43" s="6">
         <v>14</v>
@@ -2312,7 +2337,7 @@
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="25" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C44" s="6">
         <v>14</v>
@@ -2328,10 +2353,10 @@
     </row>
     <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C45" s="6">
         <v>14</v>
@@ -2347,7 +2372,7 @@
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="25" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C46" s="6">
         <v>14</v>
@@ -2367,7 +2392,7 @@
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="25" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C47" s="6">
         <v>14</v>
@@ -2383,7 +2408,7 @@
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="25" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -2393,7 +2418,7 @@
     </row>
     <row r="49" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="25" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C49" s="6">
         <v>14</v>
@@ -2409,7 +2434,7 @@
     </row>
     <row r="50" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="25" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C50" s="6">
         <v>14</v>
@@ -2425,7 +2450,7 @@
     </row>
     <row r="51" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="25" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -2435,7 +2460,7 @@
     </row>
     <row r="52" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="25" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C52" s="6">
         <v>14</v>
@@ -2455,7 +2480,7 @@
     </row>
     <row r="53" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="25" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C53" s="6">
         <v>8</v>
@@ -2475,7 +2500,7 @@
     </row>
     <row r="54" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C54" s="6">
         <v>8</v>
@@ -2495,7 +2520,7 @@
     </row>
     <row r="55" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="25" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C55" s="6">
         <v>14</v>
@@ -2511,7 +2536,7 @@
     </row>
     <row r="56" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="25" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C56" s="6">
         <v>17</v>
@@ -2527,7 +2552,7 @@
     </row>
     <row r="57" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="25" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C57" s="6">
         <v>17</v>
@@ -2543,11 +2568,11 @@
     </row>
     <row r="58" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F58" s="28" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G58" s="29">
         <f>AVERAGE(G6:G57)</f>
-        <v>0.3075</v>
+        <v>0.50750000000000006</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2664,7 +2689,7 @@
   <dimension ref="C5:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D13"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2674,10 +2699,10 @@
   <sheetData>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="21" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
@@ -2830,6 +2855,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074C886D97DC2CA43A3C320BBEBDF10BC" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d2152290d9fcc0329f5ae5ab4ff8c314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44578a0e-d2a4-4569-89a6-913d1072a7e5" xmlns:ns4="a18590ec-63de-4bfb-82c4-ae33370569f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2a8b9a552455b1f3bf67fd0ee4a1fd6" ns3:_="" ns4:_="">
     <xsd:import namespace="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
@@ -3040,22 +3080,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF287837-3503-445D-B664-B7D777C7A24F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a18590ec-63de-4bfb-82c4-ae33370569f5"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E717F02-B222-4674-8658-8EF209B467A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB2DD865-0F33-43A8-B553-74F8F988C566}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3072,29 +3122,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E717F02-B222-4674-8658-8EF209B467A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF287837-3503-445D-B664-B7D777C7A24F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a18590ec-63de-4bfb-82c4-ae33370569f5"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CEPP64‐08 Gantt Chart.xlsx
+++ b/CEPP64‐08 Gantt Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2181E4-384A-47B8-9E16-9142EB5E8FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75396FEA-4CD9-477C-A310-F4604D5C669A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -1319,10 +1319,10 @@
   <dimension ref="A1:BO59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="H29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="H38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1787,10 +1787,10 @@
         <v>7</v>
       </c>
       <c r="F10" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1807,10 +1807,10 @@
         <v>8</v>
       </c>
       <c r="F11" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1827,10 +1827,10 @@
         <v>9</v>
       </c>
       <c r="F12" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G12" s="27">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1847,10 +1847,10 @@
         <v>9</v>
       </c>
       <c r="F13" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13" s="27">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1867,10 +1867,10 @@
         <v>9</v>
       </c>
       <c r="F14" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G14" s="27">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1893,10 +1893,14 @@
       <c r="D16" s="6">
         <v>2</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="6">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2</v>
+      </c>
       <c r="G16" s="27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1979,10 +1983,10 @@
         <v>6</v>
       </c>
       <c r="F21" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" s="27">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2472,10 +2476,10 @@
         <v>7</v>
       </c>
       <c r="F52" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G52" s="27">
-        <v>0.15</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2512,10 +2516,10 @@
         <v>7</v>
       </c>
       <c r="F54" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G54" s="27">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2572,7 +2576,7 @@
       </c>
       <c r="G58" s="29">
         <f>AVERAGE(G6:G57)</f>
-        <v>0.50750000000000006</v>
+        <v>0.61499999999999999</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2689,7 +2693,7 @@
   <dimension ref="C5:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2855,21 +2859,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074C886D97DC2CA43A3C320BBEBDF10BC" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d2152290d9fcc0329f5ae5ab4ff8c314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44578a0e-d2a4-4569-89a6-913d1072a7e5" xmlns:ns4="a18590ec-63de-4bfb-82c4-ae33370569f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2a8b9a552455b1f3bf67fd0ee4a1fd6" ns3:_="" ns4:_="">
     <xsd:import namespace="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
@@ -3080,32 +3069,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF287837-3503-445D-B664-B7D777C7A24F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a18590ec-63de-4bfb-82c4-ae33370569f5"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E717F02-B222-4674-8658-8EF209B467A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB2DD865-0F33-43A8-B553-74F8F988C566}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3122,4 +3101,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E717F02-B222-4674-8658-8EF209B467A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF287837-3503-445D-B664-B7D777C7A24F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a18590ec-63de-4bfb-82c4-ae33370569f5"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CEPP64‐08 Gantt Chart.xlsx
+++ b/CEPP64‐08 Gantt Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75396FEA-4CD9-477C-A310-F4604D5C669A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2BFE91-0DE5-43D4-B858-7D4BC0ACDDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -1318,11 +1318,11 @@
   </sheetPr>
   <dimension ref="A1:BO59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="H38" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="Q62" sqref="Q62"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2235,10 +2235,14 @@
       <c r="D36" s="6">
         <v>1</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="E36" s="6">
+        <v>11</v>
+      </c>
+      <c r="F36" s="6">
+        <v>3</v>
+      </c>
       <c r="G36" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2251,10 +2255,14 @@
       <c r="D37" s="6">
         <v>1</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="E37" s="6">
+        <v>11</v>
+      </c>
+      <c r="F37" s="6">
+        <v>3</v>
+      </c>
       <c r="G37" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2576,7 +2584,7 @@
       </c>
       <c r="G58" s="29">
         <f>AVERAGE(G6:G57)</f>
-        <v>0.61499999999999999</v>
+        <v>0.66500000000000004</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2859,6 +2867,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074C886D97DC2CA43A3C320BBEBDF10BC" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d2152290d9fcc0329f5ae5ab4ff8c314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44578a0e-d2a4-4569-89a6-913d1072a7e5" xmlns:ns4="a18590ec-63de-4bfb-82c4-ae33370569f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2a8b9a552455b1f3bf67fd0ee4a1fd6" ns3:_="" ns4:_="">
     <xsd:import namespace="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
@@ -3069,22 +3092,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF287837-3503-445D-B664-B7D777C7A24F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a18590ec-63de-4bfb-82c4-ae33370569f5"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E717F02-B222-4674-8658-8EF209B467A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB2DD865-0F33-43A8-B553-74F8F988C566}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3101,29 +3134,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E717F02-B222-4674-8658-8EF209B467A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF287837-3503-445D-B664-B7D777C7A24F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a18590ec-63de-4bfb-82c4-ae33370569f5"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CEPP64‐08 Gantt Chart.xlsx
+++ b/CEPP64‐08 Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2BFE91-0DE5-43D4-B858-7D4BC0ACDDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7223EA47-D795-4726-BD68-8E8428D40433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1319,10 +1319,10 @@
   <dimension ref="A1:BO59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2867,21 +2867,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074C886D97DC2CA43A3C320BBEBDF10BC" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d2152290d9fcc0329f5ae5ab4ff8c314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44578a0e-d2a4-4569-89a6-913d1072a7e5" xmlns:ns4="a18590ec-63de-4bfb-82c4-ae33370569f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2a8b9a552455b1f3bf67fd0ee4a1fd6" ns3:_="" ns4:_="">
     <xsd:import namespace="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
@@ -3092,32 +3077,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF287837-3503-445D-B664-B7D777C7A24F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a18590ec-63de-4bfb-82c4-ae33370569f5"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E717F02-B222-4674-8658-8EF209B467A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB2DD865-0F33-43A8-B553-74F8F988C566}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3134,4 +3109,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E717F02-B222-4674-8658-8EF209B467A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF287837-3503-445D-B664-B7D777C7A24F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a18590ec-63de-4bfb-82c4-ae33370569f5"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CEPP64‐08 Gantt Chart.xlsx
+++ b/CEPP64‐08 Gantt Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7223EA47-D795-4726-BD68-8E8428D40433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64F41C3-9464-47CD-A7DD-11A439E202B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -1318,11 +1318,11 @@
   </sheetPr>
   <dimension ref="A1:BO59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="66" zoomScaleNormal="66" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="F57" sqref="F57"/>
+      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1953,10 +1953,14 @@
       <c r="D19" s="6">
         <v>2</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="E19" s="6">
+        <v>12</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
       <c r="G19" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2032,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="27">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2049,10 +2053,10 @@
         <v>9</v>
       </c>
       <c r="F25" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G25" s="27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2069,10 +2073,10 @@
         <v>9</v>
       </c>
       <c r="F26" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G26" s="27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2099,10 +2103,10 @@
         <v>10</v>
       </c>
       <c r="F28" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G28" s="27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2119,10 +2123,10 @@
         <v>10</v>
       </c>
       <c r="F29" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G29" s="27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2139,10 +2143,10 @@
         <v>10</v>
       </c>
       <c r="F30" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G30" s="27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2159,10 +2163,10 @@
         <v>10</v>
       </c>
       <c r="F31" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G31" s="27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2189,10 +2193,10 @@
         <v>10</v>
       </c>
       <c r="F33" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G33" s="27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2209,10 +2213,10 @@
         <v>10</v>
       </c>
       <c r="F34" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G34" s="27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2242,7 +2246,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2262,7 +2266,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2584,7 +2588,7 @@
       </c>
       <c r="G58" s="29">
         <f>AVERAGE(G6:G57)</f>
-        <v>0.66500000000000004</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2867,6 +2871,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074C886D97DC2CA43A3C320BBEBDF10BC" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d2152290d9fcc0329f5ae5ab4ff8c314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44578a0e-d2a4-4569-89a6-913d1072a7e5" xmlns:ns4="a18590ec-63de-4bfb-82c4-ae33370569f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2a8b9a552455b1f3bf67fd0ee4a1fd6" ns3:_="" ns4:_="">
     <xsd:import namespace="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
@@ -3077,22 +3096,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF287837-3503-445D-B664-B7D777C7A24F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a18590ec-63de-4bfb-82c4-ae33370569f5"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E717F02-B222-4674-8658-8EF209B467A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB2DD865-0F33-43A8-B553-74F8F988C566}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3109,29 +3138,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E717F02-B222-4674-8658-8EF209B467A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF287837-3503-445D-B664-B7D777C7A24F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a18590ec-63de-4bfb-82c4-ae33370569f5"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CEPP64‐08 Gantt Chart.xlsx
+++ b/CEPP64‐08 Gantt Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64F41C3-9464-47CD-A7DD-11A439E202B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D177008-0EEC-4203-89E6-038C3B6CFAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -278,9 +278,6 @@
     <t>7.3 ที่มาความสำคัญ, วัตถุประสงค์, ทฤษฎี และ งานวิจัย</t>
   </si>
   <si>
-    <t>7.3 ขอบเขต, การพัฒนา, แผนดำเนินงาน และประโยชน์ที่คาดจะได้</t>
-  </si>
-  <si>
     <t>7.4 ผลการศึกษา และอ้างอิง</t>
   </si>
   <si>
@@ -330,6 +327,9 @@
   </si>
   <si>
     <t>4.3.6.2 ส่วนคาดการณ์ผลลัพธ์ที่ได้ของบัณฑิตจากหลักสูตร</t>
+  </si>
+  <si>
+    <t>7.3 ขอบเขต, การพัฒนา และประโยชน์ที่คาดจะได้</t>
   </si>
 </sst>
 </file>
@@ -1319,10 +1319,10 @@
   <dimension ref="A1:BO59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="66" zoomScaleNormal="66" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="H41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomRight" activeCell="AH59" sqref="AH59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1357,7 +1357,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="12">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="37" t="s">
@@ -1815,7 +1815,7 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="6">
         <v>9</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="6">
         <v>10</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="6">
         <v>8</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="6">
         <v>11</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="6">
         <v>11</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="6">
         <v>12</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="6">
         <v>12</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="6">
         <v>12</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="6">
         <v>12</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="6">
         <v>12</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="6">
         <v>13</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46" s="6">
         <v>14</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="55" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="25" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C55" s="6">
         <v>14</v>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="56" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" s="6">
         <v>17</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="57" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" s="6">
         <v>17</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="58" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F58" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G58" s="29">
         <f>AVERAGE(G6:G57)</f>
@@ -2705,7 +2705,7 @@
   <dimension ref="C5:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2715,10 +2715,10 @@
   <sheetData>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">

--- a/CEPP64‐08 Gantt Chart.xlsx
+++ b/CEPP64‐08 Gantt Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D177008-0EEC-4203-89E6-038C3B6CFAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D7DB76-A44D-4113-8766-4729D6953748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -263,9 +263,6 @@
     <t>6.1 Demo manual pipeline</t>
   </si>
   <si>
-    <t>6.2 Automate pipeline</t>
-  </si>
-  <si>
     <t>7. รูปเล่มรายงาน</t>
   </si>
   <si>
@@ -330,6 +327,9 @@
   </si>
   <si>
     <t>7.3 ขอบเขต, การพัฒนา และประโยชน์ที่คาดจะได้</t>
+  </si>
+  <si>
+    <t>6.2 ศึกษาการทำ Automate pipeline</t>
   </si>
 </sst>
 </file>
@@ -1319,10 +1319,10 @@
   <dimension ref="A1:BO59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="66" zoomScaleNormal="66" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="H41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="H44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="AH59" sqref="AH59"/>
+      <selection pane="bottomRight" activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="6">
         <v>9</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="6">
         <v>10</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="6">
         <v>8</v>
@@ -1897,10 +1897,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G16" s="27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2003,10 +2003,14 @@
       <c r="D22" s="6">
         <v>1</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="6">
+        <v>10</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
       <c r="G22" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2053,10 +2057,10 @@
         <v>9</v>
       </c>
       <c r="F25" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G25" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2073,10 +2077,10 @@
         <v>9</v>
       </c>
       <c r="F26" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2103,15 +2107,15 @@
         <v>10</v>
       </c>
       <c r="F28" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G28" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="6">
         <v>11</v>
@@ -2123,15 +2127,15 @@
         <v>10</v>
       </c>
       <c r="F29" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" s="6">
         <v>11</v>
@@ -2143,15 +2147,15 @@
         <v>10</v>
       </c>
       <c r="F30" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G30" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="6">
         <v>12</v>
@@ -2163,10 +2167,10 @@
         <v>10</v>
       </c>
       <c r="F31" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G31" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2181,7 +2185,7 @@
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="6">
         <v>12</v>
@@ -2196,12 +2200,12 @@
         <v>4</v>
       </c>
       <c r="G33" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="6">
         <v>12</v>
@@ -2216,7 +2220,7 @@
         <v>4</v>
       </c>
       <c r="G34" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2231,7 +2235,7 @@
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="6">
         <v>12</v>
@@ -2246,12 +2250,12 @@
         <v>3</v>
       </c>
       <c r="G36" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="6">
         <v>12</v>
@@ -2266,7 +2270,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2281,7 +2285,7 @@
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="6">
         <v>13</v>
@@ -2289,10 +2293,14 @@
       <c r="D39" s="6">
         <v>1</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="E39" s="6">
+        <v>13</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
       <c r="G39" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2315,10 +2323,14 @@
       <c r="D41" s="6">
         <v>1</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="E41" s="6">
+        <v>13</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
       <c r="G41" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2380,15 +2392,19 @@
       <c r="D45" s="6">
         <v>1</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+      <c r="E45" s="6">
+        <v>14</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1</v>
+      </c>
       <c r="G45" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" s="6">
         <v>14</v>
@@ -2442,15 +2458,19 @@
       <c r="D49" s="6">
         <v>5</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="E49" s="6">
+        <v>14</v>
+      </c>
+      <c r="F49" s="6">
+        <v>3</v>
+      </c>
       <c r="G49" s="27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="25" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C50" s="6">
         <v>14</v>
@@ -2458,15 +2478,19 @@
       <c r="D50" s="6">
         <v>5</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="E50" s="6">
+        <v>14</v>
+      </c>
+      <c r="F50" s="6">
+        <v>3</v>
+      </c>
       <c r="G50" s="27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -2476,7 +2500,7 @@
     </row>
     <row r="52" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="6">
         <v>14</v>
@@ -2488,7 +2512,7 @@
         <v>7</v>
       </c>
       <c r="F52" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G52" s="27">
         <v>0.65</v>
@@ -2496,7 +2520,7 @@
     </row>
     <row r="53" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="6">
         <v>8</v>
@@ -2516,7 +2540,7 @@
     </row>
     <row r="54" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="6">
         <v>8</v>
@@ -2536,7 +2560,7 @@
     </row>
     <row r="55" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C55" s="6">
         <v>14</v>
@@ -2544,15 +2568,19 @@
       <c r="D55" s="6">
         <v>3</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
+      <c r="E55" s="6">
+        <v>14</v>
+      </c>
+      <c r="F55" s="6">
+        <v>3</v>
+      </c>
       <c r="G55" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" s="6">
         <v>17</v>
@@ -2568,7 +2596,7 @@
     </row>
     <row r="57" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="6">
         <v>17</v>
@@ -2584,11 +2612,11 @@
     </row>
     <row r="58" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F58" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G58" s="29">
         <f>AVERAGE(G6:G57)</f>
-        <v>0.56999999999999995</v>
+        <v>0.84749999999999992</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2715,10 +2743,10 @@
   <sheetData>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>57</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
@@ -2871,21 +2899,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074C886D97DC2CA43A3C320BBEBDF10BC" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d2152290d9fcc0329f5ae5ab4ff8c314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44578a0e-d2a4-4569-89a6-913d1072a7e5" xmlns:ns4="a18590ec-63de-4bfb-82c4-ae33370569f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2a8b9a552455b1f3bf67fd0ee4a1fd6" ns3:_="" ns4:_="">
     <xsd:import namespace="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
@@ -3096,32 +3109,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF287837-3503-445D-B664-B7D777C7A24F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a18590ec-63de-4bfb-82c4-ae33370569f5"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E717F02-B222-4674-8658-8EF209B467A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB2DD865-0F33-43A8-B553-74F8F988C566}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3138,4 +3141,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E717F02-B222-4674-8658-8EF209B467A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF287837-3503-445D-B664-B7D777C7A24F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a18590ec-63de-4bfb-82c4-ae33370569f5"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CEPP64‐08 Gantt Chart.xlsx
+++ b/CEPP64‐08 Gantt Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D7DB76-A44D-4113-8766-4729D6953748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA4BEA2-8607-4CDA-9270-F1BAC34A4EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -1319,7 +1319,7 @@
   <dimension ref="A1:BO59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="66" zoomScaleNormal="66" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="H44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
       <selection pane="bottomRight" activeCell="M61" sqref="M61"/>
@@ -2899,6 +2899,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074C886D97DC2CA43A3C320BBEBDF10BC" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d2152290d9fcc0329f5ae5ab4ff8c314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44578a0e-d2a4-4569-89a6-913d1072a7e5" xmlns:ns4="a18590ec-63de-4bfb-82c4-ae33370569f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2a8b9a552455b1f3bf67fd0ee4a1fd6" ns3:_="" ns4:_="">
     <xsd:import namespace="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
@@ -3109,22 +3124,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF287837-3503-445D-B664-B7D777C7A24F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a18590ec-63de-4bfb-82c4-ae33370569f5"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E717F02-B222-4674-8658-8EF209B467A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB2DD865-0F33-43A8-B553-74F8F988C566}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3141,29 +3166,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E717F02-B222-4674-8658-8EF209B467A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF287837-3503-445D-B664-B7D777C7A24F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a18590ec-63de-4bfb-82c4-ae33370569f5"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CEPP64‐08 Gantt Chart.xlsx
+++ b/CEPP64‐08 Gantt Chart.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA4BEA2-8607-4CDA-9270-F1BAC34A4EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160104AC-74AB-4CF1-9346-7B64BD6FED80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1319,7 +1319,7 @@
   <dimension ref="A1:BO59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="66" zoomScaleNormal="66" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
       <selection pane="bottomRight" activeCell="M61" sqref="M61"/>
@@ -2899,21 +2899,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074C886D97DC2CA43A3C320BBEBDF10BC" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d2152290d9fcc0329f5ae5ab4ff8c314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44578a0e-d2a4-4569-89a6-913d1072a7e5" xmlns:ns4="a18590ec-63de-4bfb-82c4-ae33370569f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2a8b9a552455b1f3bf67fd0ee4a1fd6" ns3:_="" ns4:_="">
     <xsd:import namespace="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
@@ -3124,32 +3109,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF287837-3503-445D-B664-B7D777C7A24F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a18590ec-63de-4bfb-82c4-ae33370569f5"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E717F02-B222-4674-8658-8EF209B467A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB2DD865-0F33-43A8-B553-74F8F988C566}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3166,4 +3141,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E717F02-B222-4674-8658-8EF209B467A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF287837-3503-445D-B664-B7D777C7A24F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a18590ec-63de-4bfb-82c4-ae33370569f5"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CEPP64‐08 Gantt Chart.xlsx
+++ b/CEPP64‐08 Gantt Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160104AC-74AB-4CF1-9346-7B64BD6FED80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A427C9E9-8606-4948-910B-AB8F92ED02F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -1319,10 +1319,10 @@
   <dimension ref="A1:BO59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="66" zoomScaleNormal="66" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="H47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="M61" sqref="M61"/>
+      <selection pane="bottomRight" activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1357,7 +1357,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="37" t="s">
@@ -1867,10 +1867,10 @@
         <v>9</v>
       </c>
       <c r="F14" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G14" s="27">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1897,10 +1897,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G16" s="27">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2373,10 +2373,14 @@
       <c r="D44" s="6">
         <v>1</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="E44" s="6">
+        <v>14</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
       <c r="G44" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2432,10 +2436,14 @@
       <c r="D47" s="6">
         <v>1</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="E47" s="6">
+        <v>14</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
       <c r="G47" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2462,10 +2470,10 @@
         <v>14</v>
       </c>
       <c r="F49" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G49" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2482,10 +2490,10 @@
         <v>14</v>
       </c>
       <c r="F50" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G50" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2512,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="F52" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G52" s="27">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2616,7 +2624,7 @@
       </c>
       <c r="G58" s="29">
         <f>AVERAGE(G6:G57)</f>
-        <v>0.84749999999999992</v>
+        <v>0.93499999999999994</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2899,6 +2907,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074C886D97DC2CA43A3C320BBEBDF10BC" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d2152290d9fcc0329f5ae5ab4ff8c314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44578a0e-d2a4-4569-89a6-913d1072a7e5" xmlns:ns4="a18590ec-63de-4bfb-82c4-ae33370569f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2a8b9a552455b1f3bf67fd0ee4a1fd6" ns3:_="" ns4:_="">
     <xsd:import namespace="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
@@ -3109,22 +3132,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF287837-3503-445D-B664-B7D777C7A24F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a18590ec-63de-4bfb-82c4-ae33370569f5"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E717F02-B222-4674-8658-8EF209B467A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB2DD865-0F33-43A8-B553-74F8F988C566}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3141,29 +3174,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E717F02-B222-4674-8658-8EF209B467A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF287837-3503-445D-B664-B7D777C7A24F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a18590ec-63de-4bfb-82c4-ae33370569f5"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>